--- a/data/trans_orig/IP06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16526CB5-C593-48E1-ACA8-C942B93975E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{095E6A98-7DC5-4D24-86D5-674981F69FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D470238-B7DD-4445-87CA-F6D229520E02}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D35F61A4-B0E7-4602-B366-E6C1AA0FBEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="462">
   <si>
     <t>Población según si tiene coche en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -122,1255 +122,1252 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2016 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2015 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>70,54%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>Población según si tiene coche en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1383,9 +1380,6 @@
   </si>
   <si>
     <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -1842,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573C4A40-F6F8-44CB-ABAC-0FADC13BBCC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DECA2AF-ECEF-4F3E-A9D5-50E13017F4DF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2481,13 +2475,13 @@
         <v>47445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -2496,13 +2490,13 @@
         <v>100992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2552,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2576,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2591,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2606,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2615,13 @@
         <v>39672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -2636,13 +2630,13 @@
         <v>45324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -2651,13 +2645,13 @@
         <v>84997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,10 +2666,10 @@
         <v>11030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>73</v>
@@ -2929,13 +2923,13 @@
         <v>9930</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2944,13 +2938,13 @@
         <v>5975</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2959,13 +2953,13 @@
         <v>15906</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2974,13 @@
         <v>2141</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2995,13 +2989,13 @@
         <v>1723</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -3010,13 +3004,13 @@
         <v>3865</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,10 +3315,10 @@
         <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3333,13 @@
         <v>204794</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7">
         <v>291</v>
@@ -3354,13 +3348,13 @@
         <v>193634</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
         <v>597</v>
@@ -3369,13 +3363,13 @@
         <v>398427</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3384,13 @@
         <v>436464</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>595</v>
@@ -3405,13 +3399,13 @@
         <v>399919</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -3420,13 +3414,13 @@
         <v>836382</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,7 +3476,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4EB78C-9305-4A77-9910-E2BA69B1F1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9DF5F4-679E-4DD4-BAA9-9E18A2B13B06}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3928,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3943,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3958,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3967,13 @@
         <v>17285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3988,13 +3982,13 @@
         <v>12878</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -4003,13 +3997,13 @@
         <v>30163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4018,13 @@
         <v>628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4039,13 +4033,13 @@
         <v>2427</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4054,13 +4048,13 @@
         <v>3055</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4069,13 @@
         <v>12182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4090,13 +4084,13 @@
         <v>10115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4105,13 +4099,13 @@
         <v>22296</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4120,13 @@
         <v>56097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -4141,13 +4135,13 @@
         <v>65413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -4156,10 +4150,10 @@
         <v>121511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>212</v>
@@ -4218,7 +4212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4236,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4266,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,10 +4293,10 @@
         <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4311,13 +4305,13 @@
         <v>77562</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,10 +4326,10 @@
         <v>11843</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>224</v>
@@ -4350,10 +4344,10 @@
         <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -4368,7 +4362,7 @@
         <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4377,13 @@
         <v>139320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -4398,7 +4392,7 @@
         <v>114669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>233</v>
@@ -4440,22 +4434,22 @@
         <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>422</v>
       </c>
       <c r="I20" s="7">
-        <v>293118</v>
+        <v>293117</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>857</v>
@@ -4464,13 +4458,13 @@
         <v>596915</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4491,7 @@
         <v>654</v>
       </c>
       <c r="I21" s="7">
-        <v>451579</v>
+        <v>451578</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -4544,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4574,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4583,13 @@
         <v>5556</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4604,13 +4598,13 @@
         <v>3169</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4619,13 +4613,13 @@
         <v>8725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,10 +4634,10 @@
         <v>3471</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>256</v>
@@ -4655,13 +4649,13 @@
         <v>3834</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -4670,13 +4664,13 @@
         <v>7305</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4685,13 @@
         <v>89320</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4706,13 +4700,13 @@
         <v>74552</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -4721,13 +4715,13 @@
         <v>163872</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4736,13 @@
         <v>73881</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>118</v>
@@ -4757,13 +4751,13 @@
         <v>85258</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>220</v>
@@ -4772,13 +4766,13 @@
         <v>159139</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4891,13 @@
         <v>62966</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -4912,13 +4906,13 @@
         <v>54125</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>157</v>
@@ -4951,7 +4945,7 @@
         <v>290</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>291</v>
@@ -4981,10 +4975,10 @@
         <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4993,13 @@
         <v>240821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H31" s="7">
         <v>294</v>
@@ -5014,13 +5008,13 @@
         <v>199335</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" s="7">
         <v>644</v>
@@ -5029,10 +5023,10 @@
         <v>440156</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>304</v>
@@ -5056,7 +5050,7 @@
         <v>306</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -5065,13 +5059,13 @@
         <v>443788</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -5080,13 +5074,13 @@
         <v>877565</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,7 +5136,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166D13F8-AAB2-4FAD-B0EB-A941DFEE4AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FCE32F-0DF2-4BF9-AD10-3233F62EC72D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5179,7 +5173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5564,37 +5558,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5603,13 @@
         <v>14542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5624,13 +5618,13 @@
         <v>11609</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5639,13 +5633,13 @@
         <v>26151</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,14 +5654,14 @@
         <v>1246</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5681,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5690,13 +5684,13 @@
         <v>1246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5705,13 @@
         <v>4587</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5726,13 +5720,13 @@
         <v>4261</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5741,13 +5735,13 @@
         <v>8848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5756,13 @@
         <v>48238</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5777,10 +5771,10 @@
         <v>41749</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>343</v>
@@ -5854,7 +5848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5887,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5902,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,10 +5914,10 @@
         <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5932,7 +5926,7 @@
         <v>38377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>351</v>
@@ -5971,10 +5965,10 @@
         <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5983,10 +5977,10 @@
         <v>13843</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>360</v>
@@ -6001,10 +5995,10 @@
         <v>361</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6013,13 @@
         <v>91586</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -6034,13 +6028,13 @@
         <v>85095</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -6049,13 +6043,13 @@
         <v>176680</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6064,13 @@
         <v>345879</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>504</v>
@@ -6085,13 +6079,13 @@
         <v>333569</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>997</v>
@@ -6100,13 +6094,13 @@
         <v>679449</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6195,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6225,13 +6219,13 @@
         <v>4190</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6240,7 +6234,7 @@
         <v>5232</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>385</v>
@@ -6255,13 +6249,13 @@
         <v>9422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6270,7 @@
         <v>2703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>389</v>
@@ -6297,7 +6291,7 @@
         <v>213</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>224</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -6306,13 +6300,13 @@
         <v>4768</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6321,13 @@
         <v>70865</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -6342,13 +6336,13 @@
         <v>72786</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -6357,13 +6351,13 @@
         <v>143651</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6372,13 @@
         <v>109737</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>136</v>
@@ -6393,13 +6387,13 @@
         <v>91904</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>294</v>
@@ -6408,13 +6402,13 @@
         <v>201641</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,10 +6527,10 @@
         <v>62695</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>414</v>
@@ -6551,10 +6545,10 @@
         <v>415</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -6563,13 +6557,13 @@
         <v>117914</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6578,13 @@
         <v>10569</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>36</v>
+        <v>422</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6599,13 +6593,13 @@
         <v>15908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -6614,13 +6608,13 @@
         <v>26477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>425</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6629,13 @@
         <v>167038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H31" s="7">
         <v>250</v>
@@ -6650,7 +6644,7 @@
         <v>162141</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>430</v>
@@ -6689,10 +6683,10 @@
         <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>704</v>
@@ -6701,13 +6695,13 @@
         <v>467223</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>1424</v>
@@ -6716,13 +6710,13 @@
         <v>971078</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6772,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6798,7 +6792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78208436-CE43-4F0C-85EB-44947CBA58CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A3F108-1645-4B83-9252-C3D4604B92EC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6815,7 +6809,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7221,7 +7215,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -7236,7 +7230,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>21</v>
@@ -7251,7 +7245,7 @@
         <v>19</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>21</v>
@@ -7275,7 +7269,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7290,7 +7284,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7305,7 +7299,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,7 +7320,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7341,7 +7335,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7356,7 +7350,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7371,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7392,7 +7386,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7407,7 +7401,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,7 +7422,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7443,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7458,7 +7452,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,7 +7508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7529,7 +7523,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -7544,7 +7538,7 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>21</v>
@@ -7559,7 +7553,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>21</v>
@@ -7598,7 +7592,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7613,7 +7607,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,7 +7643,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7664,7 +7658,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,7 +7694,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7715,7 +7709,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7766,7 +7760,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7831,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>21</v>
@@ -7852,7 +7846,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>21</v>
@@ -7867,7 +7861,7 @@
         <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>21</v>
@@ -7891,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7906,7 +7900,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7921,7 +7915,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7936,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7957,7 +7951,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7972,7 +7966,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +7987,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8008,7 +8002,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8023,7 +8017,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8038,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8059,7 +8053,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8074,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,7 +8139,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>21</v>
@@ -8160,7 +8154,7 @@
         <v>19</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>21</v>
@@ -8175,7 +8169,7 @@
         <v>19</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>21</v>
@@ -8199,7 +8193,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8214,7 +8208,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8229,7 +8223,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8244,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8265,7 +8259,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8280,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,7 +8295,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8316,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8331,7 +8325,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,7 +8346,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8367,7 +8361,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8382,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8432,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
